--- a/Voxtral_result.xlsx
+++ b/Voxtral_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13834\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69D7FF-692F-4835-9B3A-6CEC756F8A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618329A-E27F-4713-94BA-1F8CF161602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11617" yWindow="0" windowWidth="11865" windowHeight="14963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,124 +117,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-5.91（条数：167）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有有效数据偏差绝对值的均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.56（条数：309）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20.38 (条数: 73)</t>
-  </si>
-  <si>
-    <t>16.88 (条数: 58)</t>
-  </si>
-  <si>
-    <t>-2.31 (条数: 232)</t>
-  </si>
-  <si>
-    <t>0.82 (条数: 175)</t>
-  </si>
-  <si>
-    <t>-0.85 (条数: 303)</t>
-  </si>
-  <si>
-    <t>0.34 (条数: 288)</t>
-  </si>
-  <si>
-    <t>-31.80 (条数: 58)</t>
-  </si>
-  <si>
-    <t>34.40 (条数: 35)</t>
-  </si>
-  <si>
-    <t>-7.44 (条数: 125)</t>
-  </si>
-  <si>
-    <t>7.56 (条数: 158)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-9.74 (条数: 52)</t>
-  </si>
-  <si>
-    <t>20.92 (条数: 162)</t>
-  </si>
-  <si>
-    <t>-10.90 (条数: 89)</t>
-  </si>
-  <si>
-    <t>11.88 (条数: 127)</t>
-  </si>
-  <si>
-    <t>-25.10 (条数: 24)</t>
-  </si>
-  <si>
-    <t>23.61 (条数: 38)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11.19 (条数: 91)</t>
-  </si>
-  <si>
-    <t>14.43 (条数: 99)</t>
-  </si>
-  <si>
-    <t>-1.83 (条数: 514)</t>
-  </si>
-  <si>
-    <t>1.22 (条数: 532)</t>
-  </si>
-  <si>
-    <t>-14.32 (条数: 49)</t>
-  </si>
-  <si>
-    <t>20.55 (条数: 121)</t>
-  </si>
-  <si>
-    <t>-22.57 (条数: 30)</t>
-  </si>
-  <si>
-    <t>29.98 (条数: 77)</t>
-  </si>
-  <si>
-    <t>-5.33 (条数: 137)</t>
-  </si>
-  <si>
-    <t>3.96 (条数: 158)</t>
-  </si>
-  <si>
-    <t>-7.17 (条数: 93)</t>
-  </si>
-  <si>
-    <t>9.28 (条数: 245)</t>
-  </si>
-  <si>
-    <t>-9.45 (条数: 87)</t>
-  </si>
-  <si>
-    <t>11.30 (条数: 158)</t>
-  </si>
-  <si>
-    <t>-0.84 (条数: 748)</t>
-  </si>
-  <si>
-    <t>0.52 (条数: 968)</t>
-  </si>
-  <si>
-    <t>-9.98 (条数: 59)</t>
-  </si>
-  <si>
-    <t>16.71 (条数: 194)</t>
-  </si>
-  <si>
     <t>starss22：sonytrain/tautrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.04 (条数: 108)</t>
+  </si>
+  <si>
+    <t>5.03 (条数: 191)</t>
+  </si>
+  <si>
+    <t>-20.18 (条数: 73)</t>
+  </si>
+  <si>
+    <t>16.23 (条数: 36)</t>
+  </si>
+  <si>
+    <t>-1.88 (条数: 241)</t>
+  </si>
+  <si>
+    <t>0.55 (条数: 178)</t>
+  </si>
+  <si>
+    <t>-1.02 (条数: 264)</t>
+  </si>
+  <si>
+    <t>0.35 (条数: 237)</t>
+  </si>
+  <si>
+    <t>-27.89 (条数: 56)</t>
+  </si>
+  <si>
+    <t>20.76 (条数: 16)</t>
+  </si>
+  <si>
+    <t>-6.25 (条数: 125)</t>
+  </si>
+  <si>
+    <t>4.38 (条数: 141)</t>
+  </si>
+  <si>
+    <t>-10.89 (条数: 41)</t>
+  </si>
+  <si>
+    <t>16.66 (条数: 98)</t>
+  </si>
+  <si>
+    <t>-1.10 (条数: 348)</t>
+  </si>
+  <si>
+    <t>0.68 (条数: 520)</t>
+  </si>
+  <si>
+    <t>-9.13 (条数: 89)</t>
+  </si>
+  <si>
+    <t>9.48 (条数: 80)</t>
+  </si>
+  <si>
+    <t>-24.09 (条数: 19)</t>
+  </si>
+  <si>
+    <t>21.34 (条数: 27)</t>
+  </si>
+  <si>
+    <t>-9.67 (条数: 91)</t>
+  </si>
+  <si>
+    <t>9.78 (条数: 73)</t>
+  </si>
+  <si>
+    <t>-2.06 (条数: 296)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91 (条数: 314)</t>
+  </si>
+  <si>
+    <t>-11.90 (条数: 58)</t>
+  </si>
+  <si>
+    <t>13.26 (条数: 58)</t>
+  </si>
+  <si>
+    <t>-14.70 (条数: 27)</t>
+  </si>
+  <si>
+    <t>18.00 (条数: 42)</t>
+  </si>
+  <si>
+    <t>-3.94 (条数: 168)</t>
+  </si>
+  <si>
+    <t>2.83 (条数: 152)</t>
+  </si>
+  <si>
+    <t>-6.49 (条数: 72)</t>
+  </si>
+  <si>
+    <t>7.75 (条数: 145)</t>
+  </si>
+  <si>
+    <t>-7.31 (条数: 94)</t>
+  </si>
+  <si>
+    <t>7.90 (条数: 97)</t>
+  </si>
+  <si>
+    <t>-7.21 (条数: 52)</t>
+  </si>
+  <si>
+    <t>13.23 (条数: 94)</t>
   </si>
 </sst>
 </file>
@@ -333,23 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,12 +346,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -677,87 +672,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
@@ -771,93 +766,93 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>40</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>50</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>60</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>90</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>120</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="5">
         <v>10</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="5">
         <v>20</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="5">
         <v>30</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="5">
         <v>40</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="5">
         <v>50</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="5">
         <v>60</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="5">
         <v>90</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>2.02</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>2.27</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>2.54</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>2.7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>2.87</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>3.04</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>3.05</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>3.6</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>3.65</v>
       </c>
       <c r="K10" s="9">
@@ -889,16 +884,16 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -910,462 +905,361 @@
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>1757</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>981</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>529</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>362</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>267</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>222</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>177</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>108</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>62</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>1581</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="5">
         <v>893</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="5">
         <v>514</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="5">
         <v>370</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="5">
         <v>302</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="5">
         <v>246</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="5">
         <v>200</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="5">
         <v>140</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>449</v>
-      </c>
-      <c r="C13" s="7">
-        <v>177</v>
-      </c>
-      <c r="D13" s="7">
-        <v>65</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="B13" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C13" s="3">
+        <v>489</v>
+      </c>
+      <c r="D13" s="3">
+        <v>249</v>
+      </c>
+      <c r="E13" s="3">
+        <v>151</v>
+      </c>
+      <c r="F13" s="3">
+        <v>123</v>
+      </c>
+      <c r="G13" s="3">
+        <v>84</v>
+      </c>
+      <c r="H13" s="3">
+        <v>63</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1218</v>
+      </c>
+      <c r="L13" s="5">
+        <v>585</v>
+      </c>
+      <c r="M13" s="5">
+        <v>249</v>
+      </c>
+      <c r="N13" s="5">
+        <v>127</v>
+      </c>
+      <c r="O13" s="5">
+        <v>128</v>
+      </c>
+      <c r="P13" s="5">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>57</v>
+      </c>
+      <c r="R13" s="5">
+        <v>40</v>
+      </c>
+      <c r="S13" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>726</v>
+      </c>
+      <c r="C14" s="3">
+        <v>492</v>
+      </c>
+      <c r="D14" s="3">
+        <v>280</v>
+      </c>
+      <c r="E14" s="3">
+        <v>211</v>
+      </c>
+      <c r="F14" s="3">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3">
+        <v>138</v>
+      </c>
+      <c r="H14" s="3">
+        <v>114</v>
+      </c>
+      <c r="I14" s="3">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45</v>
+      </c>
+      <c r="K14" s="5">
+        <v>363</v>
+      </c>
+      <c r="L14" s="5">
+        <v>308</v>
+      </c>
+      <c r="M14" s="5">
+        <v>265</v>
+      </c>
+      <c r="N14" s="5">
+        <v>243</v>
+      </c>
+      <c r="O14" s="5">
+        <v>174</v>
+      </c>
+      <c r="P14" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>143</v>
+      </c>
+      <c r="R14" s="5">
+        <v>100</v>
+      </c>
+      <c r="S14" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1157</v>
-      </c>
-      <c r="L13" s="10">
-        <v>583</v>
-      </c>
-      <c r="M13" s="10">
-        <v>228</v>
-      </c>
-      <c r="N13" s="10">
-        <v>95</v>
-      </c>
-      <c r="O13" s="10">
-        <v>63</v>
-      </c>
-      <c r="P13" s="10">
+      <c r="O15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="10">
-        <v>10</v>
-      </c>
-      <c r="S13" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1308</v>
-      </c>
-      <c r="C14" s="7">
-        <v>804</v>
-      </c>
-      <c r="D14" s="7">
-        <v>464</v>
-      </c>
-      <c r="E14" s="7">
-        <v>335</v>
-      </c>
-      <c r="F14" s="7">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7">
-        <v>212</v>
-      </c>
-      <c r="H14" s="7">
-        <v>170</v>
-      </c>
-      <c r="I14" s="7">
-        <v>107</v>
-      </c>
-      <c r="J14" s="7">
-        <v>62</v>
-      </c>
-      <c r="K14" s="10">
-        <v>424</v>
-      </c>
-      <c r="L14" s="10">
-        <v>310</v>
-      </c>
-      <c r="M14" s="10">
-        <v>286</v>
-      </c>
-      <c r="N14" s="10">
-        <v>275</v>
-      </c>
-      <c r="O14" s="10">
-        <v>239</v>
-      </c>
-      <c r="P14" s="10">
-        <v>206</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>180</v>
-      </c>
-      <c r="R14" s="10">
-        <v>130</v>
-      </c>
-      <c r="S14" s="10">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="S16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.97</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5.16</v>
-      </c>
-      <c r="E17" s="7">
-        <v>8.77</v>
-      </c>
-      <c r="F17" s="7">
-        <v>15.14</v>
-      </c>
-      <c r="G17" s="7">
-        <v>18.38</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18.75</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27.9</v>
-      </c>
-      <c r="J17" s="7">
-        <v>24.19</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="L17" s="10">
-        <v>2.19</v>
-      </c>
-      <c r="M17" s="10">
-        <v>4.74</v>
-      </c>
-      <c r="N17" s="10">
-        <v>7.72</v>
-      </c>
-      <c r="O17" s="10">
-        <v>10.91</v>
-      </c>
-      <c r="P17" s="10">
-        <v>12.04</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>13.59</v>
-      </c>
-      <c r="R17" s="10">
-        <v>18.98</v>
-      </c>
-      <c r="S17" s="10">
-        <v>33.130000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="B17" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11.24</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15.07</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16.96</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22.97</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="N17" s="5">
+        <v>5.76</v>
+      </c>
+      <c r="O17" s="5">
+        <v>8.36</v>
+      </c>
+      <c r="P17" s="5">
+        <v>10.47</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>11.15</v>
+      </c>
+      <c r="R17" s="5">
+        <v>20.57</v>
+      </c>
+      <c r="S17" s="5">
+        <v>27.05</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="Q10:Q11"/>
@@ -1374,6 +1268,23 @@
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K8:S8"/>
     <mergeCell ref="B7:S7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
